--- a/import-2.xlsx
+++ b/import-2.xlsx
@@ -1,151 +1,176 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Ok. Como validar se um cpf é vá" sheetId="1" r:id="rId4"/>
+    <sheet name="planilha" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
-    <t>TIPO_PESSOA</t>
-  </si>
-  <si>
-    <t>CPF</t>
-  </si>
-  <si>
-    <t>CNPJ</t>
-  </si>
-  <si>
-    <t>NOME</t>
-  </si>
-  <si>
-    <t>RAZAO_SOCIAL</t>
-  </si>
-  <si>
-    <t>RG</t>
-  </si>
-  <si>
-    <t>INSCRICAO_ESTADUAL</t>
-  </si>
-  <si>
-    <t>DATA_NASCIMENTO</t>
-  </si>
-  <si>
-    <t>DATA_CRIACAO</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>ENDERECOS</t>
-  </si>
-  <si>
-    <t>FISICA</t>
-  </si>
-  <si>
-    <t>00610758179</t>
-  </si>
-  <si>
-    <t>João Pedro Leite</t>
-  </si>
-  <si>
-    <t>jplmarotinho22@gmail.com</t>
-  </si>
-  <si>
-    <t>Rua PP7;s/n;75071695;Parque dos Pirineus;Anápolis;GO</t>
-  </si>
-  <si>
-    <t>JURIDICA</t>
-  </si>
-  <si>
-    <t>32230574000142</t>
-  </si>
-  <si>
-    <t>Silva &amp; Cia Ltda.</t>
-  </si>
-  <si>
-    <t>contato@silva.com</t>
-  </si>
-  <si>
-    <t>Rua Jaragua;1000;75100100;Distrito Industrial;Anápolis;GO</t>
-  </si>
-  <si>
-    <t>17.830.029/0001-01</t>
-  </si>
-  <si>
-    <t>Costa Transportes</t>
-  </si>
-  <si>
-    <t>adm@costa-trans.com</t>
-  </si>
-  <si>
-    <t>Rua sei la;1000;75100100;Distrito Industrial;Anápolis;GO</t>
-  </si>
-  <si>
-    <t>05.555.382/0001-33</t>
-  </si>
-  <si>
-    <t>Dias Comércio de Alimentos</t>
-  </si>
-  <si>
-    <t>compras@diasalim.com</t>
-  </si>
-  <si>
-    <t>Rua suspeita;1000;75100100;Distrito Industrial;Anápolis;GO</t>
-  </si>
-  <si>
-    <t>15.415.777/0001-94</t>
-  </si>
-  <si>
-    <t>Moreira &amp; Filhos ME</t>
-  </si>
-  <si>
-    <t>financeiro@moreira.com</t>
-  </si>
-  <si>
-    <t>Rua das garças;1000;75100100;Distrito Industrial;Anápolis;GO</t>
-  </si>
-  <si>
-    <t>05742607000160</t>
-  </si>
-  <si>
-    <t>F&amp;E Consultoria</t>
-  </si>
-  <si>
-    <t>consultoria@fe.com</t>
-  </si>
-  <si>
-    <t>Rua janeiros;1000;75100100;Distrito Industrial;Anápolis;GO</t>
+    <t xml:space="preserve">TIPO_PESSOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNPJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAZAO_SOCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSCRICAO_ESTADUAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATA_NASCIMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATA_CRIACAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENDERECOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FISICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00610758179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">João Pedro Leite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jplmarotinho22@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua PP7;s/n;75071695;Parque dos Pirineus;Anápolis;GO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JURIDICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32230574000142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silva &amp; Cia Ltda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contato@silva.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua Jaragua;1000;75100100;Distrito Industrial;Anápolis;GO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.830.029/0001-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Transportes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adm@costa-trans.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua sei la;1000;75100100;Distrito Industrial;Anápolis;GO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.555.382/0001-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dias Comércio de Alimentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compras@diasalim.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua suspeita;1000;75100100;Distrito Industrial;Anápolis;GO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.415.777/0001-94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moreira &amp; Filhos ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">financeiro@moreira.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua das garças;1000;75100100;Distrito Industrial;Anápolis;GO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05742607000160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F&amp;E Consultoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consultoria@fe.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua janeiros;1000;75100100;Distrito Industrial;Anápolis;GO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -153,61 +178,158 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F7F7"/>
-        <bgColor rgb="FFF7F7F7"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF7F7F7"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFF7F7F7"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -218,94 +340,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -313,33 +431,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -352,13 +461,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -368,15 +471,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -384,7 +485,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -392,11 +492,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -405,27 +505,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.0"/>
-    <col customWidth="1" min="3" max="3" width="16.25"/>
-    <col customWidth="1" min="4" max="4" width="15.0"/>
-    <col customWidth="1" min="5" max="5" width="23.63"/>
-    <col customWidth="1" min="7" max="7" width="19.88"/>
-    <col customWidth="1" min="8" max="8" width="16.38"/>
-    <col customWidth="1" min="9" max="9" width="17.5"/>
-    <col customWidth="1" min="10" max="10" width="22.38"/>
-    <col customWidth="1" min="11" max="11" width="47.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="47.88"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -472,12 +576,12 @@
         <v>13</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="1">
-        <v>7.5071695E7</v>
+      <c r="F2" s="1" t="n">
+        <v>75071695</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="5">
-        <v>36765.0</v>
+      <c r="H2" s="5" t="n">
+        <v>36765</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="1" t="s">
@@ -487,7 +591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -500,12 +604,12 @@
         <v>18</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="1">
-        <v>9.87654321E8</v>
+      <c r="G3" s="1" t="n">
+        <v>987654321</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="5">
-        <v>40188.0</v>
+      <c r="I3" s="5" t="n">
+        <v>40188</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>19</v>
@@ -514,7 +618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -527,12 +631,12 @@
         <v>22</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="1">
-        <v>1.23456789E8</v>
+      <c r="G4" s="1" t="n">
+        <v>123456789</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="5">
-        <v>42068.0</v>
+      <c r="I4" s="5" t="n">
+        <v>42068</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>23</v>
@@ -541,12 +645,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="4"/>
@@ -554,12 +658,12 @@
         <v>26</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="1">
-        <v>3.21654987E8</v>
+      <c r="G5" s="1" t="n">
+        <v>321654987</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="5">
-        <v>38515.0</v>
+      <c r="I5" s="5" t="n">
+        <v>38515</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>27</v>
@@ -568,12 +672,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="4"/>
@@ -581,12 +685,12 @@
         <v>30</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="1">
-        <v>4.56123789E8</v>
+      <c r="G6" s="1" t="n">
+        <v>456123789</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="5">
-        <v>43365.0</v>
+      <c r="I6" s="5" t="n">
+        <v>43365</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>31</v>
@@ -595,12 +699,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="4"/>
@@ -608,12 +712,12 @@
         <v>34</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="1">
-        <v>7.89123456E8</v>
+      <c r="G7" s="1" t="n">
+        <v>789123456</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="5">
-        <v>43939.0</v>
+      <c r="I7" s="5" t="n">
+        <v>43939</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>35</v>
@@ -623,6 +727,12 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/import-2.xlsx
+++ b/import-2.xlsx
@@ -82,7 +82,7 @@
     <t xml:space="preserve">contato@silva.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Rua Jaragua;1000;75100100;Distrito Industrial;Anápolis;GO</t>
+    <t xml:space="preserve">Avenida do estado;1000;01025020;Centro;São Paulo;SP</t>
   </si>
   <si>
     <t xml:space="preserve">17.830.029/0001-01</t>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">adm@costa-trans.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Rua sei la;1000;75100100;Distrito Industrial;Anápolis;GO</t>
+    <t xml:space="preserve">Avenida Antártica;s/n;05003020;Água Branca;São Paulo;SP</t>
   </si>
   <si>
     <t xml:space="preserve">05.555.382/0001-33</t>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">compras@diasalim.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Rua suspeita;1000;75100100;Distrito Industrial;Anápolis;GO</t>
+    <t xml:space="preserve">Estrada do carrapicho;4;05275015;Anhanguera;São Paulo;SP</t>
   </si>
   <si>
     <t xml:space="preserve">15.415.777/0001-94</t>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">financeiro@moreira.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Rua das garças;1000;75100100;Distrito Industrial;Anápolis;GO</t>
+    <t xml:space="preserve">Rua Ágatha Cristie;10;04875160;Chácara Santo Amaro;São Paulo;SP</t>
   </si>
   <si>
     <t xml:space="preserve">05742607000160</t>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">consultoria@fe.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Rua janeiros;1000;75100100;Distrito Industrial;Anápolis;GO</t>
+    <t xml:space="preserve">Rua janeiros;1000;04116000;Jardim Vila Mariana;São Paulo;SP</t>
   </si>
 </sst>
 </file>
@@ -227,36 +227,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -513,216 +509,216 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="47.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="22.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="47.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="1" t="n">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="n">
         <v>75071695</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5" t="n">
+      <c r="G2" s="2"/>
+      <c r="H2" s="4" t="n">
         <v>36765</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="1" t="n">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="n">
         <v>987654321</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5" t="n">
+      <c r="H3" s="2"/>
+      <c r="I3" s="4" t="n">
         <v>40188</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="1" t="n">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="n">
         <v>123456789</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5" t="n">
+      <c r="H4" s="2"/>
+      <c r="I4" s="4" t="n">
         <v>42068</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="1" t="n">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="n">
         <v>321654987</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5" t="n">
+      <c r="H5" s="2"/>
+      <c r="I5" s="4" t="n">
         <v>38515</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="1" t="n">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="n">
         <v>456123789</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5" t="n">
+      <c r="H6" s="2"/>
+      <c r="I6" s="4" t="n">
         <v>43365</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="1" t="n">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="n">
         <v>789123456</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5" t="n">
+      <c r="H7" s="2"/>
+      <c r="I7" s="4" t="n">
         <v>43939</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>36</v>
       </c>
     </row>
